--- a/cam/RP2040-ProMini-20230609-BOM.xlsx
+++ b/cam/RP2040-ProMini-20230609-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-ProMini\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4419F81B-DFEC-4515-8097-E91616A81536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67691BC-8D23-4E84-B265-FA63C435BE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="25320" xr2:uid="{1A36A938-FF2D-482B-8DC2-6C784DBF3E37}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
